--- a/ProjectFramework/Assets/Cehua/DataTable/base/GameState.xlsx
+++ b/ProjectFramework/Assets/Cehua/DataTable/base/GameState.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="Scene" sheetId="1" r:id="rId1"/>
+    <sheet name="GameState" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +19,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>备注（场景名）</t>
+  </si>
+  <si>
+    <t>游戏状态类名</t>
+  </si>
+  <si>
+    <t>场景资源名称</t>
+  </si>
+  <si>
+    <t>背景音乐ID</t>
+  </si>
+  <si>
+    <t>摄像机初始坐标</t>
+  </si>
+  <si>
+    <t>摄像机初始大小</t>
+  </si>
+  <si>
+    <t>摄像机是否可移动</t>
+  </si>
+  <si>
+    <t>摄像机最小值</t>
+  </si>
+  <si>
+    <t>摄像机最大值</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -92,34 +125,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>备注（场景名）</t>
-  </si>
-  <si>
-    <t>游戏状态类名</t>
-  </si>
-  <si>
-    <t>场景资源名称</t>
-  </si>
-  <si>
-    <t>背景音乐ID</t>
-  </si>
-  <si>
-    <t>摄像机初始坐标</t>
-  </si>
-  <si>
-    <t>摄像机初始大小</t>
-  </si>
-  <si>
-    <t>摄像机是否可移动</t>
-  </si>
-  <si>
-    <t>摄像机最小值</t>
-  </si>
-  <si>
-    <t>摄像机最大值</t>
+    <t>_option</t>
   </si>
   <si>
     <t>切换场景</t>
@@ -1121,13 +1127,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="34.25" customWidth="1"/>
@@ -1144,217 +1150,191 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1" spans="1:10">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" ht="14.1" customHeight="1" spans="1:10">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
         <v>5.4</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>5.4</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>5.4</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:10">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>5.4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>5.4</v>
-      </c>
-      <c r="J5">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:10">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>7.4</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:10">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>5.4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>5.4</v>
@@ -1363,35 +1343,99 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" ht="15" customHeight="1" spans="1:10">
       <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>7.4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:10">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>5.4</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5.4</v>
+      </c>
+      <c r="J9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
         <v>5.4</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>5.4</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>5.4</v>
       </c>
     </row>

--- a/ProjectFramework/Assets/Cehua/DataTable/base/GameState.xlsx
+++ b/ProjectFramework/Assets/Cehua/DataTable/base/GameState.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="GameState" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>c</t>
   </si>
@@ -128,22 +128,22 @@
     <t>_option</t>
   </si>
   <si>
-    <t>切换场景</t>
-  </si>
-  <si>
-    <t>CGameStateChangeScene</t>
+    <t>预加载资源</t>
+  </si>
+  <si>
+    <t>CGameStatePreloadResource</t>
   </si>
   <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>战斗测试</t>
-  </si>
-  <si>
-    <t>CGameStateTestBattle</t>
-  </si>
-  <si>
-    <t>BattleTest</t>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>CGameStateLogin</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
   <si>
     <t>主场景</t>
@@ -153,24 +153,6 @@
   </si>
   <si>
     <t>Main</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>CGameStateLogin</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>室内</t>
-  </si>
-  <si>
-    <t>CGameStateHome</t>
-  </si>
-  <si>
-    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -1127,13 +1109,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="34.25" customWidth="1"/>
@@ -1325,7 +1307,7 @@
         <v>31</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -1334,7 +1316,7 @@
         <v>5.4</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>5.4</v>
@@ -1373,70 +1355,6 @@
       </c>
       <c r="J8">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>5.4</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>5.4</v>
-      </c>
-      <c r="J9">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>5.4</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>5.4</v>
-      </c>
-      <c r="J10">
-        <v>5.4</v>
       </c>
     </row>
   </sheetData>
